--- a/Orange/Ensemble-Pasting-Predictions-2.xlsx
+++ b/Orange/Ensemble-Pasting-Predictions-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Dropbox/Repos/MLCourse/Untracked/Homework/HW7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Dropbox/Repos/MLCourse/Orange/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="1360" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
       <selection activeCell="G635" sqref="G635"/>
     </sheetView>
   </sheetViews>
